--- a/public/personnel_template.xlsx
+++ b/public/personnel_template.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\projects\react\moersystems\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88478336-B4D6-42BA-97F4-535316869B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0D0B97-46A4-40C7-99F0-4B7AAACD8CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A2CC19BB-4FC9-4822-B85F-8C264A168AB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{A2CC19BB-4FC9-4822-B85F-8C264A168AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="personnel_format" sheetId="1" r:id="rId1"/>
-    <sheet name="LookUps" sheetId="2" r:id="rId2"/>
+    <sheet name="LookUps" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">personnel_format!$A$1:$L$27</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2081,8 +2084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800676C5-6BEA-410B-A578-F1D1C90471BA}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,7 +2185,7 @@
       <c r="F5" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+TkmTHJXtBy+B2gaHfoC0Rb9b1A+hjPU9xqpfURLIiwbE0Ju3o3cT0Cq96BdJp4AFkJaiVCO1Uldi2sm6SwXpQ==" saltValue="89xWrac5pGt8immDKoRqpw==" spinCount="100000" sheet="1" insertRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="3">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{1B620C03-65F3-4E38-8EB3-31AB551BF309}">
       <formula1>AND(   ISNUMBER(FIND("@",F2)),   LEN(F2)-LEN(SUBSTITUTE(F2,"@",""))=1,   FIND("@",F2)&gt;1,   ISNUMBER(FIND(".",F2)),   FIND(".",F2) &gt; FIND("@",F2)+1,   RIGHT(F2,1)&lt;&gt;".",   NOT(ISNUMBER(FIND(" ",F2))) )</formula1>
@@ -2198,6 +2202,7 @@
     <hyperlink ref="F2" r:id="rId1" xr:uid="{17407F7B-EF1A-4327-9A76-48EA5C13CD26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2244,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60566B4F-ACC0-400D-8585-29B877F9511D}">
   <dimension ref="B3:F207"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4188,5 +4193,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GbmXv2KMUc7X5gD8kp2P5hHvGnTB9MxIDqTTVV+8MW9zaYX7MoRt2EvNlB1XCGvRYhE0GoYagzY4wB7w0TyI+A==" saltValue="KcuiyUMzvLKJw6OiVgodWA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>